--- a/src/notes_and_resources/Chars Map Workbook.xlsx
+++ b/src/notes_and_resources/Chars Map Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanToshev\IdeaProjects\TgwrTranslitr2\src\notes_and_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C68AB1-9750-485C-8D07-035247F6F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0988B1-830A-4376-A276-7B5E51947333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables from word" sheetId="1" r:id="rId1"/>
@@ -2707,7 +2707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2807,6 +2807,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2821,7 +2829,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2846,8 +2854,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3010,11 +3023,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3177,14 +3206,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="122">
     <dxf>
@@ -5256,10 +5287,10 @@
     <tableColumn id="9" xr3:uid="{14CB7C50-2943-454D-880F-558C5AC8CB44}" uniqueName="9" name="notes" queryTableFieldId="9" dataDxfId="82"/>
     <tableColumn id="10" xr3:uid="{EA1D2A30-978B-469B-8366-A1FC61FAD1D1}" uniqueName="10" name="0" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{47635918-2758-4491-A97A-3C3BF3BA78F6}" uniqueName="11" name="Column1" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{CF002755-9E7A-4193-B15E-68E91D9C5470}" uniqueName="12" name="raw ones as array" queryTableFieldId="12" dataDxfId="81">
+    <tableColumn id="12" xr3:uid="{CF002755-9E7A-4193-B15E-68E91D9C5470}" uniqueName="12" name="raw ones as array" queryTableFieldId="12" dataDxfId="81" dataCellStyle="Output">
       <calculatedColumnFormula>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6615D54D-0B05-4334-81C4-594FCF9D137F}" uniqueName="13" name="fixed ones as array" queryTableFieldId="13" dataDxfId="80">
+    <tableColumn id="13" xr3:uid="{6615D54D-0B05-4334-81C4-594FCF9D137F}" uniqueName="13" name="fixed ones as array" queryTableFieldId="13" dataDxfId="80" dataCellStyle="Output">
       <calculatedColumnFormula>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6969,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2735F8-C0A9-429E-A7A8-59D75325D03D}">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="O231" sqref="O231"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="O239" sqref="O239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7057,11 +7088,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C1",</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1E",</v>
       </c>
@@ -7094,11 +7125,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C!",</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!D",</v>
       </c>
@@ -7131,11 +7162,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cq",</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qE",</v>
       </c>
@@ -7168,11 +7199,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CQ",</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QE",</v>
       </c>
@@ -7205,11 +7236,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ca",</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aE",</v>
       </c>
@@ -7242,11 +7273,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CA",</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AE",</v>
       </c>
@@ -7279,11 +7310,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cz",</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zE",</v>
       </c>
@@ -7316,11 +7347,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CZ",</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZE",</v>
       </c>
@@ -7353,11 +7384,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C2",</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2#",</v>
       </c>
@@ -7390,11 +7421,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C@",</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@#",</v>
       </c>
@@ -7427,11 +7458,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cw",</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"w#",</v>
       </c>
@@ -7464,11 +7495,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CW",</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"W#",</v>
       </c>
@@ -7501,11 +7532,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cs",</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M14" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"s#",</v>
       </c>
@@ -7538,11 +7569,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CS",</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M15" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"S#",</v>
       </c>
@@ -7575,11 +7606,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cx",</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"x#",</v>
       </c>
@@ -7612,11 +7643,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`CX",</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"X#",</v>
       </c>
@@ -7649,11 +7680,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C3",</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3D",</v>
       </c>
@@ -7686,11 +7717,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ce",</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M19" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eE",</v>
       </c>
@@ -7723,11 +7754,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cd",</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dE",</v>
       </c>
@@ -7760,11 +7791,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cc",</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cE",</v>
       </c>
@@ -7797,11 +7828,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C4",</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4#",</v>
       </c>
@@ -7834,11 +7865,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cr",</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"r#",</v>
       </c>
@@ -7871,11 +7902,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cf",</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"f#",</v>
       </c>
@@ -7908,11 +7939,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cv",</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"v#",</v>
       </c>
@@ -7945,11 +7976,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C5",</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5#",</v>
       </c>
@@ -7982,11 +8013,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ct",</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M27" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"t#",</v>
       </c>
@@ -8019,11 +8050,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cg",</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M28" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"g#",</v>
       </c>
@@ -8056,11 +8087,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L29" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cb",</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M29" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"b#",</v>
       </c>
@@ -8093,11 +8124,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C6",</v>
       </c>
-      <c r="M30" t="str">
+      <c r="M30" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6E",</v>
       </c>
@@ -8130,11 +8161,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cy",</v>
       </c>
-      <c r="M31" t="str">
+      <c r="M31" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yE",</v>
       </c>
@@ -8170,11 +8201,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ch",</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hE",</v>
       </c>
@@ -8207,11 +8238,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cn",</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nE",</v>
       </c>
@@ -8244,11 +8275,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C7",</v>
       </c>
-      <c r="M34" t="str">
+      <c r="M34" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"7E",</v>
       </c>
@@ -8281,11 +8312,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cu",</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"uE",</v>
       </c>
@@ -8318,11 +8349,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="str">
+      <c r="L36" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cj",</v>
       </c>
-      <c r="M36" t="str">
+      <c r="M36" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"j#",</v>
       </c>
@@ -8355,11 +8386,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="str">
+      <c r="L37" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cm",</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M37" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"m#",</v>
       </c>
@@ -8392,11 +8423,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L38" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C8",</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iE",</v>
       </c>
@@ -8429,11 +8460,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ci",</v>
       </c>
-      <c r="M39" t="str">
+      <c r="M39" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iE",</v>
       </c>
@@ -8466,11 +8497,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L40" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ck",</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M40" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",E",</v>
       </c>
@@ -8503,11 +8534,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L41" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C,",</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M41" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",E",</v>
       </c>
@@ -8540,11 +8571,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="str">
+      <c r="L42" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C9",</v>
       </c>
-      <c r="M42" t="str">
+      <c r="M42" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"9D",</v>
       </c>
@@ -8577,11 +8608,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Co",</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"oE",</v>
       </c>
@@ -8614,11 +8645,11 @@
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L44" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Cl",</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"lE",</v>
       </c>
@@ -8651,11 +8682,11 @@
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`C.",</v>
       </c>
-      <c r="M45" t="str">
+      <c r="M45" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>".D",</v>
       </c>
@@ -8688,11 +8719,11 @@
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L46" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V1",</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1R",</v>
       </c>
@@ -8725,11 +8756,11 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L47" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V!",</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M47" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!R",</v>
       </c>
@@ -8762,11 +8793,11 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vq",</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qR",</v>
       </c>
@@ -8799,11 +8830,11 @@
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VQ",</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M49" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QR",</v>
       </c>
@@ -8836,11 +8867,11 @@
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Va",</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aR",</v>
       </c>
@@ -8873,11 +8904,11 @@
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VA",</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AR",</v>
       </c>
@@ -8910,11 +8941,11 @@
       <c r="K52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vz",</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zR",</v>
       </c>
@@ -8947,11 +8978,11 @@
       <c r="K53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VZ",</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZR",</v>
       </c>
@@ -8984,11 +9015,11 @@
       <c r="K54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L54" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V2",</v>
       </c>
-      <c r="M54" t="str">
+      <c r="M54" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2$",</v>
       </c>
@@ -9021,11 +9052,11 @@
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L55" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V@",</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M55" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@$",</v>
       </c>
@@ -9058,11 +9089,11 @@
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L56" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vw",</v>
       </c>
-      <c r="M56" t="str">
+      <c r="M56" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"w$",</v>
       </c>
@@ -9095,11 +9126,11 @@
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L57" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VW",</v>
       </c>
-      <c r="M57" t="str">
+      <c r="M57" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"W$",</v>
       </c>
@@ -9132,11 +9163,11 @@
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L58" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vs",</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M58" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"s$",</v>
       </c>
@@ -9169,11 +9200,11 @@
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L59" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VS",</v>
       </c>
-      <c r="M59" t="str">
+      <c r="M59" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"S$",</v>
       </c>
@@ -9206,11 +9237,11 @@
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L60" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vx",</v>
       </c>
-      <c r="M60" t="str">
+      <c r="M60" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"x$",</v>
       </c>
@@ -9243,11 +9274,11 @@
       <c r="K61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L61" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`VX",</v>
       </c>
-      <c r="M61" t="str">
+      <c r="M61" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"X$",</v>
       </c>
@@ -9280,11 +9311,11 @@
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L62" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V3",</v>
       </c>
-      <c r="M62" t="str">
+      <c r="M62" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3R",</v>
       </c>
@@ -9317,11 +9348,11 @@
       <c r="K63" t="b">
         <v>1</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L63" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ve",</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M63" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eR",</v>
       </c>
@@ -9354,11 +9385,11 @@
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L64" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vd",</v>
       </c>
-      <c r="M64" t="str">
+      <c r="M64" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dR",</v>
       </c>
@@ -9391,11 +9422,11 @@
       <c r="K65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="str">
+      <c r="L65" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vc",</v>
       </c>
-      <c r="M65" t="str">
+      <c r="M65" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cR",</v>
       </c>
@@ -9428,11 +9459,11 @@
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="str">
+      <c r="L66" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V4",</v>
       </c>
-      <c r="M66" t="str">
+      <c r="M66" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4$",</v>
       </c>
@@ -9465,11 +9496,11 @@
       <c r="K67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="str">
+      <c r="L67" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vr",</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M67" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"r$",</v>
       </c>
@@ -9502,11 +9533,11 @@
       <c r="K68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="str">
+      <c r="L68" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vf",</v>
       </c>
-      <c r="M68" t="str">
+      <c r="M68" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"f$",</v>
       </c>
@@ -9539,11 +9570,11 @@
       <c r="K69" t="b">
         <v>1</v>
       </c>
-      <c r="L69" t="str">
+      <c r="L69" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vv",</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M69" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"v$",</v>
       </c>
@@ -9576,11 +9607,11 @@
       <c r="K70" t="b">
         <v>1</v>
       </c>
-      <c r="L70" t="str">
+      <c r="L70" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V5",</v>
       </c>
-      <c r="M70" t="str">
+      <c r="M70" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5$",</v>
       </c>
@@ -9613,11 +9644,11 @@
       <c r="K71" t="b">
         <v>1</v>
       </c>
-      <c r="L71" t="str">
+      <c r="L71" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vt",</v>
       </c>
-      <c r="M71" t="str">
+      <c r="M71" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"t$",</v>
       </c>
@@ -9650,11 +9681,11 @@
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="str">
+      <c r="L72" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vg",</v>
       </c>
-      <c r="M72" t="str">
+      <c r="M72" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"g$",</v>
       </c>
@@ -9687,11 +9718,11 @@
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L73" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vb",</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M73" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"b$",</v>
       </c>
@@ -9727,11 +9758,11 @@
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="L74" t="str">
+      <c r="L74" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V6",</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M74" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6R",</v>
       </c>
@@ -9764,11 +9795,11 @@
       <c r="K75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L75" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vy",</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M75" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yR",</v>
       </c>
@@ -9801,11 +9832,11 @@
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L76" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vh",</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M76" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hR",</v>
       </c>
@@ -9838,11 +9869,11 @@
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="str">
+      <c r="L77" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vn",</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M77" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nR",</v>
       </c>
@@ -9875,11 +9906,11 @@
       <c r="K78" t="b">
         <v>1</v>
       </c>
-      <c r="L78" t="str">
+      <c r="L78" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V7",</v>
       </c>
-      <c r="M78" t="str">
+      <c r="M78" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"7R",</v>
       </c>
@@ -9912,11 +9943,11 @@
       <c r="K79" t="b">
         <v>1</v>
       </c>
-      <c r="L79" t="str">
+      <c r="L79" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vu",</v>
       </c>
-      <c r="M79" t="str">
+      <c r="M79" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"uR",</v>
       </c>
@@ -9949,11 +9980,11 @@
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="str">
+      <c r="L80" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vj",</v>
       </c>
-      <c r="M80" t="str">
+      <c r="M80" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"jR",</v>
       </c>
@@ -9986,11 +10017,11 @@
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="str">
+      <c r="L81" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vm",</v>
       </c>
-      <c r="M81" t="str">
+      <c r="M81" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"mR",</v>
       </c>
@@ -10023,11 +10054,11 @@
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="str">
+      <c r="L82" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V8",</v>
       </c>
-      <c r="M82" t="str">
+      <c r="M82" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iR",</v>
       </c>
@@ -10060,11 +10091,11 @@
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="L83" t="str">
+      <c r="L83" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vi",</v>
       </c>
-      <c r="M83" t="str">
+      <c r="M83" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iR",</v>
       </c>
@@ -10097,11 +10128,11 @@
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L84" t="str">
+      <c r="L84" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vk",</v>
       </c>
-      <c r="M84" t="str">
+      <c r="M84" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",R",</v>
       </c>
@@ -10134,11 +10165,11 @@
       <c r="K85" t="b">
         <v>1</v>
       </c>
-      <c r="L85" t="str">
+      <c r="L85" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V,",</v>
       </c>
-      <c r="M85" t="str">
+      <c r="M85" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",R",</v>
       </c>
@@ -10171,11 +10202,11 @@
       <c r="K86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="str">
+      <c r="L86" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V9",</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M86" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"9V",</v>
       </c>
@@ -10208,11 +10239,11 @@
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="str">
+      <c r="L87" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vo",</v>
       </c>
-      <c r="M87" t="str">
+      <c r="M87" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"oR",</v>
       </c>
@@ -10245,11 +10276,11 @@
       <c r="K88" t="b">
         <v>1</v>
       </c>
-      <c r="L88" t="str">
+      <c r="L88" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Vl",</v>
       </c>
-      <c r="M88" t="str">
+      <c r="M88" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"lR",</v>
       </c>
@@ -10282,11 +10313,11 @@
       <c r="K89" t="b">
         <v>1</v>
       </c>
-      <c r="L89" t="str">
+      <c r="L89" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`V.",</v>
       </c>
-      <c r="M89" t="str">
+      <c r="M89" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>".R",</v>
       </c>
@@ -10319,11 +10350,11 @@
       <c r="K90" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="str">
+      <c r="L90" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B1",</v>
       </c>
-      <c r="M90" t="str">
+      <c r="M90" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1T",</v>
       </c>
@@ -10356,11 +10387,11 @@
       <c r="K91" t="b">
         <v>1</v>
       </c>
-      <c r="L91" t="str">
+      <c r="L91" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B!",</v>
       </c>
-      <c r="M91" t="str">
+      <c r="M91" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!T",</v>
       </c>
@@ -10393,11 +10424,11 @@
       <c r="K92" t="b">
         <v>1</v>
       </c>
-      <c r="L92" t="str">
+      <c r="L92" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bq",</v>
       </c>
-      <c r="M92" t="str">
+      <c r="M92" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qT",</v>
       </c>
@@ -10430,11 +10461,11 @@
       <c r="K93" t="b">
         <v>1</v>
       </c>
-      <c r="L93" t="str">
+      <c r="L93" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BQ",</v>
       </c>
-      <c r="M93" t="str">
+      <c r="M93" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QT",</v>
       </c>
@@ -10467,11 +10498,11 @@
       <c r="K94" t="b">
         <v>1</v>
       </c>
-      <c r="L94" t="str">
+      <c r="L94" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ba",</v>
       </c>
-      <c r="M94" t="str">
+      <c r="M94" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aT",</v>
       </c>
@@ -10504,11 +10535,11 @@
       <c r="K95" t="b">
         <v>1</v>
       </c>
-      <c r="L95" t="str">
+      <c r="L95" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BA",</v>
       </c>
-      <c r="M95" t="str">
+      <c r="M95" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AT",</v>
       </c>
@@ -10541,11 +10572,11 @@
       <c r="K96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" t="str">
+      <c r="L96" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bz",</v>
       </c>
-      <c r="M96" t="str">
+      <c r="M96" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zT",</v>
       </c>
@@ -10578,11 +10609,11 @@
       <c r="K97" t="b">
         <v>1</v>
       </c>
-      <c r="L97" t="str">
+      <c r="L97" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BZ",</v>
       </c>
-      <c r="M97" t="str">
+      <c r="M97" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZT",</v>
       </c>
@@ -10615,11 +10646,11 @@
       <c r="K98" t="b">
         <v>1</v>
       </c>
-      <c r="L98" t="str">
+      <c r="L98" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B2",</v>
       </c>
-      <c r="M98" t="str">
+      <c r="M98" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2%",</v>
       </c>
@@ -10652,11 +10683,11 @@
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="str">
+      <c r="L99" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B@",</v>
       </c>
-      <c r="M99" t="str">
+      <c r="M99" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@%",</v>
       </c>
@@ -10689,11 +10720,11 @@
       <c r="K100" t="b">
         <v>1</v>
       </c>
-      <c r="L100" t="str">
+      <c r="L100" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bw",</v>
       </c>
-      <c r="M100" t="str">
+      <c r="M100" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"w%",</v>
       </c>
@@ -10726,11 +10757,11 @@
       <c r="K101" t="b">
         <v>1</v>
       </c>
-      <c r="L101" t="str">
+      <c r="L101" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BW",</v>
       </c>
-      <c r="M101" t="str">
+      <c r="M101" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"W%",</v>
       </c>
@@ -10763,11 +10794,11 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="L102" t="str">
+      <c r="L102" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bs",</v>
       </c>
-      <c r="M102" t="str">
+      <c r="M102" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"s%",</v>
       </c>
@@ -10800,11 +10831,11 @@
       <c r="K103" t="b">
         <v>1</v>
       </c>
-      <c r="L103" t="str">
+      <c r="L103" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BS",</v>
       </c>
-      <c r="M103" t="str">
+      <c r="M103" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"S%",</v>
       </c>
@@ -10837,11 +10868,11 @@
       <c r="K104" t="b">
         <v>1</v>
       </c>
-      <c r="L104" t="str">
+      <c r="L104" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bx",</v>
       </c>
-      <c r="M104" t="str">
+      <c r="M104" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"x%",</v>
       </c>
@@ -10874,11 +10905,11 @@
       <c r="K105" t="b">
         <v>1</v>
       </c>
-      <c r="L105" t="str">
+      <c r="L105" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`BX",</v>
       </c>
-      <c r="M105" t="str">
+      <c r="M105" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"X%",</v>
       </c>
@@ -10911,11 +10942,11 @@
       <c r="K106" t="b">
         <v>1</v>
       </c>
-      <c r="L106" t="str">
+      <c r="L106" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B3",</v>
       </c>
-      <c r="M106" t="str">
+      <c r="M106" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3T",</v>
       </c>
@@ -10948,11 +10979,11 @@
       <c r="K107" t="b">
         <v>1</v>
       </c>
-      <c r="L107" t="str">
+      <c r="L107" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Be",</v>
       </c>
-      <c r="M107" t="str">
+      <c r="M107" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eT",</v>
       </c>
@@ -10985,11 +11016,11 @@
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="L108" t="str">
+      <c r="L108" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bd",</v>
       </c>
-      <c r="M108" t="str">
+      <c r="M108" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dT",</v>
       </c>
@@ -11022,11 +11053,11 @@
       <c r="K109" t="b">
         <v>1</v>
       </c>
-      <c r="L109" t="str">
+      <c r="L109" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bc",</v>
       </c>
-      <c r="M109" t="str">
+      <c r="M109" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cT",</v>
       </c>
@@ -11059,11 +11090,11 @@
       <c r="K110" t="b">
         <v>1</v>
       </c>
-      <c r="L110" t="str">
+      <c r="L110" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B4",</v>
       </c>
-      <c r="M110" t="str">
+      <c r="M110" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4%",</v>
       </c>
@@ -11096,11 +11127,11 @@
       <c r="K111" t="b">
         <v>1</v>
       </c>
-      <c r="L111" t="str">
+      <c r="L111" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Br",</v>
       </c>
-      <c r="M111" t="str">
+      <c r="M111" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"r%",</v>
       </c>
@@ -11133,11 +11164,11 @@
       <c r="K112" t="b">
         <v>1</v>
       </c>
-      <c r="L112" t="str">
+      <c r="L112" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bf",</v>
       </c>
-      <c r="M112" t="str">
+      <c r="M112" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"f%",</v>
       </c>
@@ -11170,11 +11201,11 @@
       <c r="K113" t="b">
         <v>1</v>
       </c>
-      <c r="L113" t="str">
+      <c r="L113" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bv",</v>
       </c>
-      <c r="M113" t="str">
+      <c r="M113" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"v%",</v>
       </c>
@@ -11207,11 +11238,11 @@
       <c r="K114" t="b">
         <v>1</v>
       </c>
-      <c r="L114" t="str">
+      <c r="L114" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B5",</v>
       </c>
-      <c r="M114" t="str">
+      <c r="M114" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5%",</v>
       </c>
@@ -11244,11 +11275,11 @@
       <c r="K115" t="b">
         <v>1</v>
       </c>
-      <c r="L115" t="str">
+      <c r="L115" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bt",</v>
       </c>
-      <c r="M115" t="str">
+      <c r="M115" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"t%",</v>
       </c>
@@ -11284,11 +11315,11 @@
       <c r="K116" t="b">
         <v>1</v>
       </c>
-      <c r="L116" t="str">
+      <c r="L116" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bg",</v>
       </c>
-      <c r="M116" t="str">
+      <c r="M116" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"g%",</v>
       </c>
@@ -11321,11 +11352,11 @@
       <c r="K117" t="b">
         <v>1</v>
       </c>
-      <c r="L117" t="str">
+      <c r="L117" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bb",</v>
       </c>
-      <c r="M117" t="str">
+      <c r="M117" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"b%",</v>
       </c>
@@ -11358,11 +11389,11 @@
       <c r="K118" t="b">
         <v>1</v>
       </c>
-      <c r="L118" t="str">
+      <c r="L118" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B6",</v>
       </c>
-      <c r="M118" t="str">
+      <c r="M118" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6T",</v>
       </c>
@@ -11395,11 +11426,11 @@
       <c r="K119" t="b">
         <v>1</v>
       </c>
-      <c r="L119" t="str">
+      <c r="L119" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`By",</v>
       </c>
-      <c r="M119" t="str">
+      <c r="M119" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yT",</v>
       </c>
@@ -11432,11 +11463,11 @@
       <c r="K120" t="b">
         <v>1</v>
       </c>
-      <c r="L120" t="str">
+      <c r="L120" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bh",</v>
       </c>
-      <c r="M120" t="str">
+      <c r="M120" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hT",</v>
       </c>
@@ -11469,11 +11500,11 @@
       <c r="K121" t="b">
         <v>1</v>
       </c>
-      <c r="L121" t="str">
+      <c r="L121" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bn",</v>
       </c>
-      <c r="M121" t="str">
+      <c r="M121" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nT",</v>
       </c>
@@ -11506,11 +11537,11 @@
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="str">
+      <c r="L122" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B7",</v>
       </c>
-      <c r="M122" t="str">
+      <c r="M122" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"7T",</v>
       </c>
@@ -11543,11 +11574,11 @@
       <c r="K123" t="b">
         <v>1</v>
       </c>
-      <c r="L123" t="str">
+      <c r="L123" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bu",</v>
       </c>
-      <c r="M123" t="str">
+      <c r="M123" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"uT",</v>
       </c>
@@ -11580,11 +11611,11 @@
       <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="str">
+      <c r="L124" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bj",</v>
       </c>
-      <c r="M124" t="str">
+      <c r="M124" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"j%",</v>
       </c>
@@ -11617,11 +11648,11 @@
       <c r="K125" t="b">
         <v>1</v>
       </c>
-      <c r="L125" t="str">
+      <c r="L125" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bm",</v>
       </c>
-      <c r="M125" t="str">
+      <c r="M125" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"m%",</v>
       </c>
@@ -11654,11 +11685,11 @@
       <c r="K126" t="b">
         <v>1</v>
       </c>
-      <c r="L126" t="str">
+      <c r="L126" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B8",</v>
       </c>
-      <c r="M126" t="str">
+      <c r="M126" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iT",</v>
       </c>
@@ -11691,11 +11722,11 @@
       <c r="K127" t="b">
         <v>1</v>
       </c>
-      <c r="L127" t="str">
+      <c r="L127" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bi",</v>
       </c>
-      <c r="M127" t="str">
+      <c r="M127" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iT",</v>
       </c>
@@ -11728,11 +11759,11 @@
       <c r="K128" t="b">
         <v>1</v>
       </c>
-      <c r="L128" t="str">
+      <c r="L128" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bk",</v>
       </c>
-      <c r="M128" t="str">
+      <c r="M128" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",T",</v>
       </c>
@@ -11765,11 +11796,11 @@
       <c r="K129" t="b">
         <v>1</v>
       </c>
-      <c r="L129" t="str">
+      <c r="L129" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B,",</v>
       </c>
-      <c r="M129" t="str">
+      <c r="M129" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",T",</v>
       </c>
@@ -11802,11 +11833,11 @@
       <c r="K130" t="b">
         <v>1</v>
       </c>
-      <c r="L130" t="str">
+      <c r="L130" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B9",</v>
       </c>
-      <c r="M130" t="str">
+      <c r="M130" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"9G",</v>
       </c>
@@ -11839,11 +11870,11 @@
       <c r="K131" t="b">
         <v>1</v>
       </c>
-      <c r="L131" t="str">
+      <c r="L131" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bo",</v>
       </c>
-      <c r="M131" t="str">
+      <c r="M131" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"oT",</v>
       </c>
@@ -11876,11 +11907,11 @@
       <c r="K132" t="b">
         <v>1</v>
       </c>
-      <c r="L132" t="str">
+      <c r="L132" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Bl",</v>
       </c>
-      <c r="M132" t="str">
+      <c r="M132" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"lT",</v>
       </c>
@@ -11913,11 +11944,11 @@
       <c r="K133" t="b">
         <v>1</v>
       </c>
-      <c r="L133" t="str">
+      <c r="L133" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`B.",</v>
       </c>
-      <c r="M133" t="str">
+      <c r="M133" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>".T",</v>
       </c>
@@ -11950,11 +11981,11 @@
       <c r="K134" t="b">
         <v>1</v>
       </c>
-      <c r="L134" t="str">
+      <c r="L134" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N1",</v>
       </c>
-      <c r="M134" t="str">
+      <c r="M134" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1N",</v>
       </c>
@@ -11987,11 +12018,11 @@
       <c r="K135" t="b">
         <v>1</v>
       </c>
-      <c r="L135" t="str">
+      <c r="L135" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N!",</v>
       </c>
-      <c r="M135" t="str">
+      <c r="M135" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!N",</v>
       </c>
@@ -12024,11 +12055,11 @@
       <c r="K136" t="b">
         <v>1</v>
       </c>
-      <c r="L136" t="str">
+      <c r="L136" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nq",</v>
       </c>
-      <c r="M136" t="str">
+      <c r="M136" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qN",</v>
       </c>
@@ -12061,11 +12092,11 @@
       <c r="K137" t="b">
         <v>1</v>
       </c>
-      <c r="L137" t="str">
+      <c r="L137" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NQ",</v>
       </c>
-      <c r="M137" t="str">
+      <c r="M137" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QN",</v>
       </c>
@@ -12098,11 +12129,11 @@
       <c r="K138" t="b">
         <v>1</v>
       </c>
-      <c r="L138" t="str">
+      <c r="L138" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Na",</v>
       </c>
-      <c r="M138" t="str">
+      <c r="M138" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aN",</v>
       </c>
@@ -12135,11 +12166,11 @@
       <c r="K139" t="b">
         <v>1</v>
       </c>
-      <c r="L139" t="str">
+      <c r="L139" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NA",</v>
       </c>
-      <c r="M139" t="str">
+      <c r="M139" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AN",</v>
       </c>
@@ -12172,11 +12203,11 @@
       <c r="K140" t="b">
         <v>1</v>
       </c>
-      <c r="L140" t="str">
+      <c r="L140" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nz",</v>
       </c>
-      <c r="M140" t="str">
+      <c r="M140" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zN",</v>
       </c>
@@ -12209,11 +12240,11 @@
       <c r="K141" t="b">
         <v>1</v>
       </c>
-      <c r="L141" t="str">
+      <c r="L141" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NZ",</v>
       </c>
-      <c r="M141" t="str">
+      <c r="M141" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZN",</v>
       </c>
@@ -12246,11 +12277,11 @@
       <c r="K142" t="b">
         <v>1</v>
       </c>
-      <c r="L142" t="str">
+      <c r="L142" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N2",</v>
       </c>
-      <c r="M142" t="str">
+      <c r="M142" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2Y",</v>
       </c>
@@ -12283,11 +12314,11 @@
       <c r="K143" t="b">
         <v>1</v>
       </c>
-      <c r="L143" t="str">
+      <c r="L143" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N@",</v>
       </c>
-      <c r="M143" t="str">
+      <c r="M143" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@Y",</v>
       </c>
@@ -12320,11 +12351,11 @@
       <c r="K144" t="b">
         <v>1</v>
       </c>
-      <c r="L144" t="str">
+      <c r="L144" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nw",</v>
       </c>
-      <c r="M144" t="str">
+      <c r="M144" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"wY",</v>
       </c>
@@ -12357,11 +12388,11 @@
       <c r="K145" t="b">
         <v>1</v>
       </c>
-      <c r="L145" t="str">
+      <c r="L145" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NW",</v>
       </c>
-      <c r="M145" t="str">
+      <c r="M145" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"WY",</v>
       </c>
@@ -12394,11 +12425,11 @@
       <c r="K146" t="b">
         <v>1</v>
       </c>
-      <c r="L146" t="str">
+      <c r="L146" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ns",</v>
       </c>
-      <c r="M146" t="str">
+      <c r="M146" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"sY",</v>
       </c>
@@ -12431,11 +12462,11 @@
       <c r="K147" t="b">
         <v>1</v>
       </c>
-      <c r="L147" t="str">
+      <c r="L147" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NS",</v>
       </c>
-      <c r="M147" t="str">
+      <c r="M147" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"SY",</v>
       </c>
@@ -12468,11 +12499,11 @@
       <c r="K148" t="b">
         <v>1</v>
       </c>
-      <c r="L148" t="str">
+      <c r="L148" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nx",</v>
       </c>
-      <c r="M148" t="str">
+      <c r="M148" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"xY",</v>
       </c>
@@ -12505,11 +12536,11 @@
       <c r="K149" t="b">
         <v>1</v>
       </c>
-      <c r="L149" t="str">
+      <c r="L149" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`NX",</v>
       </c>
-      <c r="M149" t="str">
+      <c r="M149" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"XY",</v>
       </c>
@@ -12542,11 +12573,11 @@
       <c r="K150" t="b">
         <v>1</v>
       </c>
-      <c r="L150" t="str">
+      <c r="L150" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N3",</v>
       </c>
-      <c r="M150" t="str">
+      <c r="M150" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3N",</v>
       </c>
@@ -12579,11 +12610,11 @@
       <c r="K151" t="b">
         <v>1</v>
       </c>
-      <c r="L151" t="str">
+      <c r="L151" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ne",</v>
       </c>
-      <c r="M151" t="str">
+      <c r="M151" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eN",</v>
       </c>
@@ -12616,11 +12647,11 @@
       <c r="K152" t="b">
         <v>1</v>
       </c>
-      <c r="L152" t="str">
+      <c r="L152" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nd",</v>
       </c>
-      <c r="M152" t="str">
+      <c r="M152" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dN",</v>
       </c>
@@ -12653,11 +12684,11 @@
       <c r="K153" t="b">
         <v>1</v>
       </c>
-      <c r="L153" t="str">
+      <c r="L153" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nc",</v>
       </c>
-      <c r="M153" t="str">
+      <c r="M153" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cN",</v>
       </c>
@@ -12690,11 +12721,11 @@
       <c r="K154" t="b">
         <v>1</v>
       </c>
-      <c r="L154" t="str">
+      <c r="L154" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N4",</v>
       </c>
-      <c r="M154" t="str">
+      <c r="M154" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4Y",</v>
       </c>
@@ -12727,11 +12758,11 @@
       <c r="K155" t="b">
         <v>1</v>
       </c>
-      <c r="L155" t="str">
+      <c r="L155" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nr",</v>
       </c>
-      <c r="M155" t="str">
+      <c r="M155" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"rY",</v>
       </c>
@@ -12764,11 +12795,11 @@
       <c r="K156" t="b">
         <v>1</v>
       </c>
-      <c r="L156" t="str">
+      <c r="L156" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nf",</v>
       </c>
-      <c r="M156" t="str">
+      <c r="M156" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"fY",</v>
       </c>
@@ -12801,11 +12832,11 @@
       <c r="K157" t="b">
         <v>1</v>
       </c>
-      <c r="L157" t="str">
+      <c r="L157" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nv",</v>
       </c>
-      <c r="M157" t="str">
+      <c r="M157" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"vY",</v>
       </c>
@@ -12841,11 +12872,11 @@
       <c r="K158" t="b">
         <v>1</v>
       </c>
-      <c r="L158" t="str">
+      <c r="L158" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N5",</v>
       </c>
-      <c r="M158" t="str">
+      <c r="M158" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5Y",</v>
       </c>
@@ -12878,11 +12909,11 @@
       <c r="K159" t="b">
         <v>1</v>
       </c>
-      <c r="L159" t="str">
+      <c r="L159" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nt",</v>
       </c>
-      <c r="M159" t="str">
+      <c r="M159" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"tY",</v>
       </c>
@@ -12915,11 +12946,11 @@
       <c r="K160" t="b">
         <v>1</v>
       </c>
-      <c r="L160" t="str">
+      <c r="L160" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ng",</v>
       </c>
-      <c r="M160" t="str">
+      <c r="M160" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"gY",</v>
       </c>
@@ -12952,11 +12983,11 @@
       <c r="K161" t="b">
         <v>1</v>
       </c>
-      <c r="L161" t="str">
+      <c r="L161" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nb",</v>
       </c>
-      <c r="M161" t="str">
+      <c r="M161" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"bY",</v>
       </c>
@@ -12989,11 +13020,11 @@
       <c r="K162" t="b">
         <v>1</v>
       </c>
-      <c r="L162" t="str">
+      <c r="L162" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N6",</v>
       </c>
-      <c r="M162" t="str">
+      <c r="M162" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6N",</v>
       </c>
@@ -13026,11 +13057,11 @@
       <c r="K163" t="b">
         <v>1</v>
       </c>
-      <c r="L163" t="str">
+      <c r="L163" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ny",</v>
       </c>
-      <c r="M163" t="str">
+      <c r="M163" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yN",</v>
       </c>
@@ -13063,11 +13094,11 @@
       <c r="K164" t="b">
         <v>0</v>
       </c>
-      <c r="L164" t="str">
+      <c r="L164" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nh",</v>
       </c>
-      <c r="M164" t="str">
+      <c r="M164" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hN",</v>
       </c>
@@ -13100,11 +13131,11 @@
       <c r="K165" t="b">
         <v>1</v>
       </c>
-      <c r="L165" t="str">
+      <c r="L165" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nn",</v>
       </c>
-      <c r="M165" t="str">
+      <c r="M165" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nN",</v>
       </c>
@@ -13137,11 +13168,11 @@
       <c r="K166" t="b">
         <v>0</v>
       </c>
-      <c r="L166" t="str">
+      <c r="L166" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N7",</v>
       </c>
-      <c r="M166" t="str">
+      <c r="M166" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"7N",</v>
       </c>
@@ -13174,11 +13205,11 @@
       <c r="K167" t="b">
         <v>1</v>
       </c>
-      <c r="L167" t="str">
+      <c r="L167" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nu",</v>
       </c>
-      <c r="M167" t="str">
+      <c r="M167" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"uN",</v>
       </c>
@@ -13211,11 +13242,11 @@
       <c r="K168" t="b">
         <v>1</v>
       </c>
-      <c r="L168" t="str">
+      <c r="L168" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nj",</v>
       </c>
-      <c r="M168" t="str">
+      <c r="M168" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"jY",</v>
       </c>
@@ -13248,11 +13279,11 @@
       <c r="K169" t="b">
         <v>1</v>
       </c>
-      <c r="L169" t="str">
+      <c r="L169" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nm",</v>
       </c>
-      <c r="M169" t="str">
+      <c r="M169" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"mY",</v>
       </c>
@@ -13285,11 +13316,11 @@
       <c r="K170" t="b">
         <v>1</v>
       </c>
-      <c r="L170" t="str">
+      <c r="L170" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N8",</v>
       </c>
-      <c r="M170" t="str">
+      <c r="M170" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iN",</v>
       </c>
@@ -13322,11 +13353,11 @@
       <c r="K171" t="b">
         <v>1</v>
       </c>
-      <c r="L171" t="str">
+      <c r="L171" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ni",</v>
       </c>
-      <c r="M171" t="str">
+      <c r="M171" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iN",</v>
       </c>
@@ -13359,11 +13390,11 @@
       <c r="K172" t="b">
         <v>1</v>
       </c>
-      <c r="L172" t="str">
+      <c r="L172" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nk",</v>
       </c>
-      <c r="M172" t="str">
+      <c r="M172" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",N",</v>
       </c>
@@ -13396,11 +13427,11 @@
       <c r="K173" t="b">
         <v>1</v>
       </c>
-      <c r="L173" t="str">
+      <c r="L173" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N,",</v>
       </c>
-      <c r="M173" t="str">
+      <c r="M173" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",N",</v>
       </c>
@@ -13433,11 +13464,11 @@
       <c r="K174" t="b">
         <v>1</v>
       </c>
-      <c r="L174" t="str">
+      <c r="L174" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N9",</v>
       </c>
-      <c r="M174" t="str">
+      <c r="M174" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"9N",</v>
       </c>
@@ -13470,11 +13501,11 @@
       <c r="K175" t="b">
         <v>1</v>
       </c>
-      <c r="L175" t="str">
+      <c r="L175" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`No",</v>
       </c>
-      <c r="M175" t="str">
+      <c r="M175" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"oY",</v>
       </c>
@@ -13507,11 +13538,11 @@
       <c r="K176" t="b">
         <v>1</v>
       </c>
-      <c r="L176" t="str">
+      <c r="L176" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Nl",</v>
       </c>
-      <c r="M176" t="str">
+      <c r="M176" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"lN",</v>
       </c>
@@ -13544,11 +13575,11 @@
       <c r="K177" t="b">
         <v>1</v>
       </c>
-      <c r="L177" t="str">
+      <c r="L177" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`N.",</v>
       </c>
-      <c r="M177" t="str">
+      <c r="M177" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>".N",</v>
       </c>
@@ -13581,11 +13612,11 @@
       <c r="K178" t="b">
         <v>1</v>
       </c>
-      <c r="L178" t="str">
+      <c r="L178" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M1",</v>
       </c>
-      <c r="M178" t="str">
+      <c r="M178" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1M",</v>
       </c>
@@ -13618,11 +13649,11 @@
       <c r="K179" t="b">
         <v>1</v>
       </c>
-      <c r="L179" t="str">
+      <c r="L179" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M!",</v>
       </c>
-      <c r="M179" t="str">
+      <c r="M179" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!M",</v>
       </c>
@@ -13655,11 +13686,11 @@
       <c r="K180" t="b">
         <v>1</v>
       </c>
-      <c r="L180" t="str">
+      <c r="L180" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mq",</v>
       </c>
-      <c r="M180" t="str">
+      <c r="M180" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qJ",</v>
       </c>
@@ -13692,11 +13723,11 @@
       <c r="K181" t="b">
         <v>1</v>
       </c>
-      <c r="L181" t="str">
+      <c r="L181" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MQ",</v>
       </c>
-      <c r="M181" t="str">
+      <c r="M181" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QJ",</v>
       </c>
@@ -13729,11 +13760,11 @@
       <c r="K182" t="b">
         <v>1</v>
       </c>
-      <c r="L182" t="str">
+      <c r="L182" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ma",</v>
       </c>
-      <c r="M182" t="str">
+      <c r="M182" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aM",</v>
       </c>
@@ -13766,11 +13797,11 @@
       <c r="K183" t="b">
         <v>1</v>
       </c>
-      <c r="L183" t="str">
+      <c r="L183" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MA",</v>
       </c>
-      <c r="M183" t="str">
+      <c r="M183" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AU",</v>
       </c>
@@ -13803,11 +13834,11 @@
       <c r="K184" t="b">
         <v>1</v>
       </c>
-      <c r="L184" t="str">
+      <c r="L184" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mz",</v>
       </c>
-      <c r="M184" t="str">
+      <c r="M184" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zJ",</v>
       </c>
@@ -13840,11 +13871,11 @@
       <c r="K185" t="b">
         <v>1</v>
       </c>
-      <c r="L185" t="str">
+      <c r="L185" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MZ",</v>
       </c>
-      <c r="M185" t="str">
+      <c r="M185" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZU",</v>
       </c>
@@ -13877,11 +13908,11 @@
       <c r="K186" t="b">
         <v>1</v>
       </c>
-      <c r="L186" t="str">
+      <c r="L186" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M2",</v>
       </c>
-      <c r="M186" t="str">
+      <c r="M186" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2&amp;",</v>
       </c>
@@ -13914,11 +13945,11 @@
       <c r="K187" t="b">
         <v>1</v>
       </c>
-      <c r="L187" t="str">
+      <c r="L187" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M@",</v>
       </c>
-      <c r="M187" t="str">
+      <c r="M187" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@&amp;",</v>
       </c>
@@ -13951,11 +13982,11 @@
       <c r="K188" t="b">
         <v>1</v>
       </c>
-      <c r="L188" t="str">
+      <c r="L188" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mw",</v>
       </c>
-      <c r="M188" t="str">
+      <c r="M188" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"w&amp;",</v>
       </c>
@@ -13988,11 +14019,11 @@
       <c r="K189" t="b">
         <v>1</v>
       </c>
-      <c r="L189" t="str">
+      <c r="L189" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MW",</v>
       </c>
-      <c r="M189" t="str">
+      <c r="M189" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"W&amp;",</v>
       </c>
@@ -14025,11 +14056,11 @@
       <c r="K190" t="b">
         <v>1</v>
       </c>
-      <c r="L190" t="str">
+      <c r="L190" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ms",</v>
       </c>
-      <c r="M190" t="str">
+      <c r="M190" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"sU",</v>
       </c>
@@ -14062,11 +14093,11 @@
       <c r="K191" t="b">
         <v>1</v>
       </c>
-      <c r="L191" t="str">
+      <c r="L191" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MS",</v>
       </c>
-      <c r="M191" t="str">
+      <c r="M191" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"SU",</v>
       </c>
@@ -14099,11 +14130,11 @@
       <c r="K192" t="b">
         <v>1</v>
       </c>
-      <c r="L192" t="str">
+      <c r="L192" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mx",</v>
       </c>
-      <c r="M192" t="str">
+      <c r="M192" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"xU",</v>
       </c>
@@ -14136,11 +14167,11 @@
       <c r="K193" t="b">
         <v>1</v>
       </c>
-      <c r="L193" t="str">
+      <c r="L193" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`MX",</v>
       </c>
-      <c r="M193" t="str">
+      <c r="M193" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"XU",</v>
       </c>
@@ -14173,11 +14204,11 @@
       <c r="K194" t="b">
         <v>1</v>
       </c>
-      <c r="L194" t="str">
+      <c r="L194" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M3",</v>
       </c>
-      <c r="M194" t="str">
+      <c r="M194" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3M",</v>
       </c>
@@ -14210,11 +14241,11 @@
       <c r="K195" t="b">
         <v>1</v>
       </c>
-      <c r="L195" t="str">
+      <c r="L195" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Me",</v>
       </c>
-      <c r="M195" t="str">
+      <c r="M195" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eM",</v>
       </c>
@@ -14247,11 +14278,11 @@
       <c r="K196" t="b">
         <v>1</v>
       </c>
-      <c r="L196" t="str">
+      <c r="L196" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Md",</v>
       </c>
-      <c r="M196" t="str">
+      <c r="M196" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dU",</v>
       </c>
@@ -14284,11 +14315,11 @@
       <c r="K197" t="b">
         <v>1</v>
       </c>
-      <c r="L197" t="str">
+      <c r="L197" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mc",</v>
       </c>
-      <c r="M197" t="str">
+      <c r="M197" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cU",</v>
       </c>
@@ -14321,11 +14352,11 @@
       <c r="K198" t="b">
         <v>1</v>
       </c>
-      <c r="L198" t="str">
+      <c r="L198" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M4",</v>
       </c>
-      <c r="M198" t="str">
+      <c r="M198" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4&amp;",</v>
       </c>
@@ -14358,11 +14389,11 @@
       <c r="K199" t="b">
         <v>1</v>
       </c>
-      <c r="L199" t="str">
+      <c r="L199" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mr",</v>
       </c>
-      <c r="M199" t="str">
+      <c r="M199" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"r&amp;",</v>
       </c>
@@ -14398,11 +14429,11 @@
       <c r="K200" t="b">
         <v>1</v>
       </c>
-      <c r="L200" t="str">
+      <c r="L200" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mf",</v>
       </c>
-      <c r="M200" t="str">
+      <c r="M200" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"fU",</v>
       </c>
@@ -14435,11 +14466,11 @@
       <c r="K201" t="b">
         <v>1</v>
       </c>
-      <c r="L201" t="str">
+      <c r="L201" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mv",</v>
       </c>
-      <c r="M201" t="str">
+      <c r="M201" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"vU",</v>
       </c>
@@ -14472,11 +14503,11 @@
       <c r="K202" t="b">
         <v>1</v>
       </c>
-      <c r="L202" t="str">
+      <c r="L202" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M5",</v>
       </c>
-      <c r="M202" t="str">
+      <c r="M202" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5&amp;",</v>
       </c>
@@ -14509,11 +14540,11 @@
       <c r="K203" t="b">
         <v>1</v>
       </c>
-      <c r="L203" t="str">
+      <c r="L203" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mt",</v>
       </c>
-      <c r="M203" t="str">
+      <c r="M203" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"t&amp;",</v>
       </c>
@@ -14546,11 +14577,11 @@
       <c r="K204" t="b">
         <v>1</v>
       </c>
-      <c r="L204" t="str">
+      <c r="L204" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mg",</v>
       </c>
-      <c r="M204" t="str">
+      <c r="M204" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"gU",</v>
       </c>
@@ -14583,11 +14614,11 @@
       <c r="K205" t="b">
         <v>1</v>
       </c>
-      <c r="L205" t="str">
+      <c r="L205" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mb",</v>
       </c>
-      <c r="M205" t="str">
+      <c r="M205" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"bU",</v>
       </c>
@@ -14620,11 +14651,11 @@
       <c r="K206" t="b">
         <v>0</v>
       </c>
-      <c r="L206" t="str">
+      <c r="L206" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M6",</v>
       </c>
-      <c r="M206" t="str">
+      <c r="M206" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6M",</v>
       </c>
@@ -14657,11 +14688,11 @@
       <c r="K207" t="b">
         <v>1</v>
       </c>
-      <c r="L207" t="str">
+      <c r="L207" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`My",</v>
       </c>
-      <c r="M207" t="str">
+      <c r="M207" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yM",</v>
       </c>
@@ -14694,11 +14725,11 @@
       <c r="K208" t="b">
         <v>0</v>
       </c>
-      <c r="L208" t="str">
+      <c r="L208" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mh",</v>
       </c>
-      <c r="M208" t="str">
+      <c r="M208" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hM",</v>
       </c>
@@ -14731,11 +14762,11 @@
       <c r="K209" t="b">
         <v>1</v>
       </c>
-      <c r="L209" t="str">
+      <c r="L209" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mn",</v>
       </c>
-      <c r="M209" t="str">
+      <c r="M209" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nM",</v>
       </c>
@@ -14768,11 +14799,11 @@
       <c r="K210" t="b">
         <v>1</v>
       </c>
-      <c r="L210" t="str">
+      <c r="L210" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M7",</v>
       </c>
-      <c r="M210" t="str">
+      <c r="M210" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"7J",</v>
       </c>
@@ -14805,11 +14836,11 @@
       <c r="K211" t="b">
         <v>1</v>
       </c>
-      <c r="L211" t="str">
+      <c r="L211" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mu",</v>
       </c>
-      <c r="M211" t="str">
+      <c r="M211" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"uJ",</v>
       </c>
@@ -14842,11 +14873,11 @@
       <c r="K212" t="b">
         <v>1</v>
       </c>
-      <c r="L212" t="str">
+      <c r="L212" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mj",</v>
       </c>
-      <c r="M212" t="str">
+      <c r="M212" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"jU",</v>
       </c>
@@ -14879,11 +14910,11 @@
       <c r="K213" t="b">
         <v>1</v>
       </c>
-      <c r="L213" t="str">
+      <c r="L213" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mm",</v>
       </c>
-      <c r="M213" t="str">
+      <c r="M213" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"mU",</v>
       </c>
@@ -14916,11 +14947,11 @@
       <c r="K214" t="b">
         <v>1</v>
       </c>
-      <c r="L214" t="str">
+      <c r="L214" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M8",</v>
       </c>
-      <c r="M214" t="str">
+      <c r="M214" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iM",</v>
       </c>
@@ -14953,11 +14984,11 @@
       <c r="K215" t="b">
         <v>1</v>
       </c>
-      <c r="L215" t="str">
+      <c r="L215" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mi",</v>
       </c>
-      <c r="M215" t="str">
+      <c r="M215" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"iM",</v>
       </c>
@@ -14990,11 +15021,11 @@
       <c r="K216" t="b">
         <v>1</v>
       </c>
-      <c r="L216" t="str">
+      <c r="L216" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mk",</v>
       </c>
-      <c r="M216" t="str">
+      <c r="M216" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",U",</v>
       </c>
@@ -15027,11 +15058,11 @@
       <c r="K217" t="b">
         <v>1</v>
       </c>
-      <c r="L217" t="str">
+      <c r="L217" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M,",</v>
       </c>
-      <c r="M217" t="str">
+      <c r="M217" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>",U",</v>
       </c>
@@ -15064,11 +15095,11 @@
       <c r="K218" t="b">
         <v>1</v>
       </c>
-      <c r="L218" t="str">
+      <c r="L218" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M9",</v>
       </c>
-      <c r="M218" t="str">
+      <c r="M218" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"9M",</v>
       </c>
@@ -15101,11 +15132,11 @@
       <c r="K219" t="b">
         <v>1</v>
       </c>
-      <c r="L219" t="str">
+      <c r="L219" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Mo",</v>
       </c>
-      <c r="M219" t="str">
+      <c r="M219" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"oU",</v>
       </c>
@@ -15138,11 +15169,11 @@
       <c r="K220" t="b">
         <v>1</v>
       </c>
-      <c r="L220" t="str">
+      <c r="L220" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`Ml",</v>
       </c>
-      <c r="M220" t="str">
+      <c r="M220" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"lJ",</v>
       </c>
@@ -15175,11 +15206,11 @@
       <c r="K221" t="b">
         <v>1</v>
       </c>
-      <c r="L221" t="str">
+      <c r="L221" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`M.",</v>
       </c>
-      <c r="M221" t="str">
+      <c r="M221" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>".M",</v>
       </c>
@@ -15212,11 +15243,11 @@
       <c r="K222" t="b">
         <v>1</v>
       </c>
-      <c r="L222" t="str">
+      <c r="L222" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×1",</v>
       </c>
-      <c r="M222" t="str">
+      <c r="M222" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"1Õ",</v>
       </c>
@@ -15249,11 +15280,11 @@
       <c r="K223" t="b">
         <v>1</v>
       </c>
-      <c r="L223" t="str">
+      <c r="L223" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×!",</v>
       </c>
-      <c r="M223" t="str">
+      <c r="M223" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"!Ö",</v>
       </c>
@@ -15286,11 +15317,11 @@
       <c r="K224" t="b">
         <v>1</v>
       </c>
-      <c r="L224" t="str">
+      <c r="L224" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×q",</v>
       </c>
-      <c r="M224" t="str">
+      <c r="M224" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"qÕ",</v>
       </c>
@@ -15323,11 +15354,11 @@
       <c r="K225" t="b">
         <v>1</v>
       </c>
-      <c r="L225" t="str">
+      <c r="L225" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×Q",</v>
       </c>
-      <c r="M225" t="str">
+      <c r="M225" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"QÖ",</v>
       </c>
@@ -15360,11 +15391,11 @@
       <c r="K226" t="b">
         <v>1</v>
       </c>
-      <c r="L226" t="str">
+      <c r="L226" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×a",</v>
       </c>
-      <c r="M226" t="str">
+      <c r="M226" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"aÕ",</v>
       </c>
@@ -15397,11 +15428,11 @@
       <c r="K227" t="b">
         <v>1</v>
       </c>
-      <c r="L227" t="str">
+      <c r="L227" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×A",</v>
       </c>
-      <c r="M227" t="str">
+      <c r="M227" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"AÕ",</v>
       </c>
@@ -15434,11 +15465,11 @@
       <c r="K228" t="b">
         <v>1</v>
       </c>
-      <c r="L228" t="str">
+      <c r="L228" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×z",</v>
       </c>
-      <c r="M228" t="str">
+      <c r="M228" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"zÕ",</v>
       </c>
@@ -15471,11 +15502,11 @@
       <c r="K229" t="b">
         <v>1</v>
       </c>
-      <c r="L229" t="str">
+      <c r="L229" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×Z",</v>
       </c>
-      <c r="M229" t="str">
+      <c r="M229" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"ZÕ",</v>
       </c>
@@ -15508,11 +15539,11 @@
       <c r="K230" t="b">
         <v>1</v>
       </c>
-      <c r="L230" t="str">
+      <c r="L230" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×2",</v>
       </c>
-      <c r="M230" t="str">
+      <c r="M230" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"2Ô",</v>
       </c>
@@ -15545,11 +15576,11 @@
       <c r="K231" t="b">
         <v>1</v>
       </c>
-      <c r="L231" t="str">
+      <c r="L231" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×@",</v>
       </c>
-      <c r="M231" t="str">
+      <c r="M231" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"@Ô",</v>
       </c>
@@ -15582,11 +15613,11 @@
       <c r="K232" t="b">
         <v>1</v>
       </c>
-      <c r="L232" t="str">
+      <c r="L232" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×w",</v>
       </c>
-      <c r="M232" t="str">
+      <c r="M232" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"wÔ",</v>
       </c>
@@ -15619,11 +15650,11 @@
       <c r="K233" t="b">
         <v>1</v>
       </c>
-      <c r="L233" t="str">
+      <c r="L233" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×W",</v>
       </c>
-      <c r="M233" t="str">
+      <c r="M233" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"WÔ",</v>
       </c>
@@ -15656,11 +15687,11 @@
       <c r="K234" t="b">
         <v>1</v>
       </c>
-      <c r="L234" t="str">
+      <c r="L234" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×s",</v>
       </c>
-      <c r="M234" t="str">
+      <c r="M234" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"sÔ",</v>
       </c>
@@ -15693,11 +15724,11 @@
       <c r="K235" t="b">
         <v>1</v>
       </c>
-      <c r="L235" t="str">
+      <c r="L235" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×S",</v>
       </c>
-      <c r="M235" t="str">
+      <c r="M235" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"SÔ",</v>
       </c>
@@ -15730,11 +15761,11 @@
       <c r="K236" t="b">
         <v>1</v>
       </c>
-      <c r="L236" t="str">
+      <c r="L236" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×x",</v>
       </c>
-      <c r="M236" t="str">
+      <c r="M236" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"xÔ",</v>
       </c>
@@ -15767,11 +15798,11 @@
       <c r="K237" t="b">
         <v>1</v>
       </c>
-      <c r="L237" t="str">
+      <c r="L237" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×X",</v>
       </c>
-      <c r="M237" t="str">
+      <c r="M237" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"XÔ",</v>
       </c>
@@ -15804,11 +15835,11 @@
       <c r="K238" t="b">
         <v>1</v>
       </c>
-      <c r="L238" t="str">
+      <c r="L238" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×3",</v>
       </c>
-      <c r="M238" t="str">
+      <c r="M238" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"3Ö",</v>
       </c>
@@ -15841,11 +15872,11 @@
       <c r="K239" t="b">
         <v>1</v>
       </c>
-      <c r="L239" t="str">
+      <c r="L239" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×e",</v>
       </c>
-      <c r="M239" t="str">
+      <c r="M239" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"eÖ",</v>
       </c>
@@ -15878,11 +15909,11 @@
       <c r="K240" t="b">
         <v>1</v>
       </c>
-      <c r="L240" t="str">
+      <c r="L240" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×d",</v>
       </c>
-      <c r="M240" t="str">
+      <c r="M240" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"dÕ",</v>
       </c>
@@ -15915,11 +15946,11 @@
       <c r="K241" t="b">
         <v>1</v>
       </c>
-      <c r="L241" t="str">
+      <c r="L241" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×c",</v>
       </c>
-      <c r="M241" t="str">
+      <c r="M241" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"cÕ",</v>
       </c>
@@ -15955,11 +15986,11 @@
       <c r="K242" t="b">
         <v>1</v>
       </c>
-      <c r="L242" t="str">
+      <c r="L242" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×4",</v>
       </c>
-      <c r="M242" t="str">
+      <c r="M242" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"4Ô",</v>
       </c>
@@ -15992,11 +16023,11 @@
       <c r="K243" t="b">
         <v>1</v>
       </c>
-      <c r="L243" t="str">
+      <c r="L243" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×r",</v>
       </c>
-      <c r="M243" t="str">
+      <c r="M243" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"rÔ",</v>
       </c>
@@ -16029,11 +16060,11 @@
       <c r="K244" t="b">
         <v>1</v>
       </c>
-      <c r="L244" t="str">
+      <c r="L244" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×f",</v>
       </c>
-      <c r="M244" t="str">
+      <c r="M244" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"fÔ",</v>
       </c>
@@ -16066,11 +16097,11 @@
       <c r="K245" t="b">
         <v>1</v>
       </c>
-      <c r="L245" t="str">
+      <c r="L245" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×v",</v>
       </c>
-      <c r="M245" t="str">
+      <c r="M245" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"vÔ",</v>
       </c>
@@ -16103,11 +16134,11 @@
       <c r="K246" t="b">
         <v>1</v>
       </c>
-      <c r="L246" t="str">
+      <c r="L246" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×5",</v>
       </c>
-      <c r="M246" t="str">
+      <c r="M246" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"5Ô",</v>
       </c>
@@ -16140,11 +16171,11 @@
       <c r="K247" t="b">
         <v>1</v>
       </c>
-      <c r="L247" t="str">
+      <c r="L247" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×t",</v>
       </c>
-      <c r="M247" t="str">
+      <c r="M247" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"t&amp;",</v>
       </c>
@@ -16177,11 +16208,11 @@
       <c r="K248" t="b">
         <v>0</v>
       </c>
-      <c r="L248" t="str">
+      <c r="L248" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×g",</v>
       </c>
-      <c r="M248" t="str">
+      <c r="M248" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"gÔ",</v>
       </c>
@@ -16214,11 +16245,11 @@
       <c r="K249" t="b">
         <v>1</v>
       </c>
-      <c r="L249" t="str">
+      <c r="L249" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×b",</v>
       </c>
-      <c r="M249" t="str">
+      <c r="M249" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"bÔ",</v>
       </c>
@@ -16251,11 +16282,11 @@
       <c r="K250" t="b">
         <v>0</v>
       </c>
-      <c r="L250" t="str">
+      <c r="L250" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×6",</v>
       </c>
-      <c r="M250" t="str">
+      <c r="M250" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"6Õ",</v>
       </c>
@@ -16288,11 +16319,11 @@
       <c r="K251" t="b">
         <v>1</v>
       </c>
-      <c r="L251" t="str">
+      <c r="L251" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×y",</v>
       </c>
-      <c r="M251" t="str">
+      <c r="M251" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"yÕ",</v>
       </c>
@@ -16325,11 +16356,11 @@
       <c r="K252" t="b">
         <v>1</v>
       </c>
-      <c r="L252" t="str">
+      <c r="L252" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×h",</v>
       </c>
-      <c r="M252" t="str">
+      <c r="M252" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"hÕ",</v>
       </c>
@@ -16362,11 +16393,11 @@
       <c r="K253" t="b">
         <v>1</v>
       </c>
-      <c r="L253" t="str">
+      <c r="L253" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[combination on kb]],quot_marks,",")</f>
         <v>"`×n",</v>
       </c>
-      <c r="M253" t="str">
+      <c r="M253" s="67" t="str">
         <f>_xlfn.CONCAT(quot_marks,AppendFullResults[[#This Row],[fixed on kb]],quot_marks,",")</f>
         <v>"nÕ",</v>
       </c>
@@ -16384,7 +16415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738D8AE7-D62C-4CB3-B204-FA6AAAEAC72B}">
   <dimension ref="A1:BU292"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
@@ -39102,7 +39133,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39131,7 +39162,7 @@
       <c r="F2" t="s">
         <v>153</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="67" t="str">
         <f t="shared" ref="G2:G14" si="0">_xlfn.CONCAT(A2:C2,comma,D2:F2, comma)</f>
         <v>"~C","]R",</v>
       </c>
@@ -39155,7 +39186,7 @@
       <c r="F3" t="s">
         <v>153</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"]T","]N",</v>
       </c>
@@ -39179,7 +39210,7 @@
       <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"]J","]Õ",</v>
       </c>
@@ -39203,7 +39234,7 @@
       <c r="F5" t="s">
         <v>153</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"lE","~V",</v>
       </c>
@@ -39227,7 +39258,7 @@
       <c r="F6" t="s">
         <v>153</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"lT","lN",</v>
       </c>
@@ -39251,7 +39282,7 @@
       <c r="F7" t="s">
         <v>153</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"lJ","lÕ",</v>
       </c>
@@ -39275,7 +39306,7 @@
       <c r="F8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"hE","hR",</v>
       </c>
@@ -39299,7 +39330,7 @@
       <c r="F9" t="s">
         <v>153</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"hT","~N",</v>
       </c>
@@ -39323,7 +39354,7 @@
       <c r="F10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"hJ","hÕ",</v>
       </c>
@@ -39347,7 +39378,7 @@
       <c r="F11" t="s">
         <v>153</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="67" t="str">
         <f t="shared" si="0"/>
         <v>".E",".T",</v>
       </c>
@@ -39371,7 +39402,7 @@
       <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="67" t="str">
         <f t="shared" si="0"/>
         <v>".R",".N",</v>
       </c>
@@ -39395,7 +39426,7 @@
       <c r="F13" t="s">
         <v>153</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"~M",".Õ",</v>
       </c>
@@ -39419,7 +39450,7 @@
       <c r="F14" t="s">
         <v>153</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="67" t="str">
         <f t="shared" si="0"/>
         <v>"~B","~×",</v>
       </c>
@@ -39524,8 +39555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B377BFF-32CC-4015-8B86-6A10CFC31D3E}">
   <dimension ref="A2:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -39561,7 +39592,7 @@
       <c r="I2" t="s">
         <v>735</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="67" t="str">
         <f>_xlfn.CONCAT(A2:I2)</f>
         <v>.replaceAll("A̍","a")</v>
       </c>
@@ -39594,7 +39625,7 @@
       <c r="I3" t="s">
         <v>735</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="67" t="str">
         <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT(A3:I3)</f>
         <v>.replaceAll("Ä","a")</v>
       </c>
@@ -39627,7 +39658,7 @@
       <c r="I4" t="s">
         <v>735</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ą́","a")</v>
       </c>
@@ -39660,7 +39691,7 @@
       <c r="I5" t="s">
         <v>735</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ȧ","a")</v>
       </c>
@@ -39693,7 +39724,7 @@
       <c r="I6" t="s">
         <v>735</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ą̃","a")</v>
       </c>
@@ -39726,7 +39757,7 @@
       <c r="I7" t="s">
         <v>735</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Á","a")</v>
       </c>
@@ -39759,7 +39790,7 @@
       <c r="I8" t="s">
         <v>735</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ă","a")</v>
       </c>
@@ -39792,7 +39823,7 @@
       <c r="I9" t="s">
         <v>735</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Â","a")</v>
       </c>
@@ -39825,7 +39856,7 @@
       <c r="I10" t="s">
         <v>735</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ā","a")</v>
       </c>
@@ -39858,7 +39889,7 @@
       <c r="I11" t="s">
         <v>735</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ą","a")</v>
       </c>
@@ -39891,7 +39922,7 @@
       <c r="I12" t="s">
         <v>735</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("À","a")</v>
       </c>
@@ -39924,7 +39955,7 @@
       <c r="I13" t="s">
         <v>735</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ả","a")</v>
       </c>
@@ -39957,7 +39988,7 @@
       <c r="I14" t="s">
         <v>735</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ã","a")</v>
       </c>
@@ -39990,7 +40021,7 @@
       <c r="I15" t="s">
         <v>735</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Å","a")</v>
       </c>
@@ -40023,7 +40054,7 @@
       <c r="I16" t="s">
         <v>735</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ɓ","b")</v>
       </c>
@@ -40056,7 +40087,7 @@
       <c r="I17" t="s">
         <v>735</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḇ","b")</v>
       </c>
@@ -40089,7 +40120,7 @@
       <c r="I18" t="s">
         <v>735</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ƀ","b")</v>
       </c>
@@ -40122,7 +40153,7 @@
       <c r="I19" t="s">
         <v>735</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("B́","b")</v>
       </c>
@@ -40155,7 +40186,7 @@
       <c r="I20" t="s">
         <v>735</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("B̀","b")</v>
       </c>
@@ -40188,7 +40219,7 @@
       <c r="I21" t="s">
         <v>735</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ć","c")</v>
       </c>
@@ -40221,7 +40252,7 @@
       <c r="I22" t="s">
         <v>735</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("C̈","c")</v>
       </c>
@@ -40254,7 +40285,7 @@
       <c r="I23" t="s">
         <v>735</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ċ","c")</v>
       </c>
@@ -40287,7 +40318,7 @@
       <c r="I24" t="s">
         <v>735</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Č","c")</v>
       </c>
@@ -40320,7 +40351,7 @@
       <c r="I25" t="s">
         <v>735</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ƈ","c")</v>
       </c>
@@ -40353,7 +40384,7 @@
       <c r="I26" t="s">
         <v>735</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ç","c")</v>
       </c>
@@ -40386,7 +40417,7 @@
       <c r="I27" t="s">
         <v>735</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ĉ","c")</v>
       </c>
@@ -40419,7 +40450,7 @@
       <c r="I28" t="s">
         <v>735</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ď","d")</v>
       </c>
@@ -40452,7 +40483,7 @@
       <c r="I29" t="s">
         <v>735</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḑ","d")</v>
       </c>
@@ -40485,7 +40516,7 @@
       <c r="I30" t="s">
         <v>735</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḍ","d")</v>
       </c>
@@ -40518,7 +40549,7 @@
       <c r="I31" t="s">
         <v>735</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ɗ","d")</v>
       </c>
@@ -40551,7 +40582,7 @@
       <c r="I32" t="s">
         <v>735</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḏ","d")</v>
       </c>
@@ -40584,7 +40615,7 @@
       <c r="I33" t="s">
         <v>735</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ě","e")</v>
       </c>
@@ -40617,7 +40648,7 @@
       <c r="I34" t="s">
         <v>735</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ê","e")</v>
       </c>
@@ -40650,7 +40681,7 @@
       <c r="I35" t="s">
         <v>735</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ę","e")</v>
       </c>
@@ -40683,7 +40714,7 @@
       <c r="I36" t="s">
         <v>735</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ẽ","e")</v>
       </c>
@@ -40716,7 +40747,7 @@
       <c r="I37" t="s">
         <v>735</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ë","e")</v>
       </c>
@@ -40749,7 +40780,7 @@
       <c r="I38" t="s">
         <v>735</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("É","e")</v>
       </c>
@@ -40782,7 +40813,7 @@
       <c r="I39" t="s">
         <v>735</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("È","e")</v>
       </c>
@@ -40815,7 +40846,7 @@
       <c r="I40" t="s">
         <v>735</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ė","e")</v>
       </c>
@@ -40848,7 +40879,7 @@
       <c r="I41" t="s">
         <v>735</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ƒ","f")</v>
       </c>
@@ -40881,7 +40912,7 @@
       <c r="I42" t="s">
         <v>735</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ǧ","g")</v>
       </c>
@@ -40914,7 +40945,7 @@
       <c r="I43" t="s">
         <v>735</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ġ","g")</v>
       </c>
@@ -40947,7 +40978,7 @@
       <c r="I44" t="s">
         <v>735</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("G̃","g")</v>
       </c>
@@ -40980,7 +41011,7 @@
       <c r="I45" t="s">
         <v>735</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ğ","g")</v>
       </c>
@@ -41013,7 +41044,7 @@
       <c r="I46" t="s">
         <v>735</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ĝ","g")</v>
       </c>
@@ -41046,7 +41077,7 @@
       <c r="I47" t="s">
         <v>735</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ɠ","g")</v>
       </c>
@@ -41079,7 +41110,7 @@
       <c r="I48" t="s">
         <v>735</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ǵ","g")</v>
       </c>
@@ -41112,7 +41143,7 @@
       <c r="I49" t="s">
         <v>735</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Gʻ","g")</v>
       </c>
@@ -41145,7 +41176,7 @@
       <c r="I50" t="s">
         <v>735</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḫ","h")</v>
       </c>
@@ -41178,7 +41209,7 @@
       <c r="I51" t="s">
         <v>735</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ȟ","h")</v>
       </c>
@@ -41211,7 +41242,7 @@
       <c r="I52" t="s">
         <v>735</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ĥ","h")</v>
       </c>
@@ -41244,7 +41275,7 @@
       <c r="I53" t="s">
         <v>735</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḥ","h")</v>
       </c>
@@ -41277,7 +41308,7 @@
       <c r="I54" t="s">
         <v>735</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ȋ","i")</v>
       </c>
@@ -41310,7 +41341,7 @@
       <c r="I55" t="s">
         <v>735</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ɨ","i")</v>
       </c>
@@ -41343,7 +41374,7 @@
       <c r="I56" t="s">
         <v>735</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Í","i")</v>
       </c>
@@ -41376,7 +41407,7 @@
       <c r="I57" t="s">
         <v>735</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Î","i")</v>
       </c>
@@ -41409,7 +41440,7 @@
       <c r="I58" t="s">
         <v>735</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ï","i")</v>
       </c>
@@ -41442,7 +41473,7 @@
       <c r="I59" t="s">
         <v>735</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("İ","i")</v>
       </c>
@@ -41475,7 +41506,7 @@
       <c r="I60" t="s">
         <v>735</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ì","i")</v>
       </c>
@@ -41508,7 +41539,7 @@
       <c r="I61" t="s">
         <v>735</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Į","i")</v>
       </c>
@@ -41541,7 +41572,7 @@
       <c r="I62" t="s">
         <v>735</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("J̌","j")</v>
       </c>
@@ -41574,7 +41605,7 @@
       <c r="I63" t="s">
         <v>735</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ĵ","j")</v>
       </c>
@@ -41607,7 +41638,7 @@
       <c r="I64" t="s">
         <v>735</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ḱ","k")</v>
       </c>
@@ -41640,7 +41671,7 @@
       <c r="I65" t="s">
         <v>735</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ƙ","k")</v>
       </c>
@@ -41673,7 +41704,7 @@
       <c r="I66" t="s">
         <v>735</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" s="67" t="str">
         <f t="shared" si="0"/>
         <v>.replaceAll("Ǩ","k")</v>
       </c>
@@ -41706,7 +41737,7 @@
       <c r="I67" t="s">
         <v>735</v>
       </c>
-      <c r="J67" t="str">
+      <c r="J67" s="67" t="str">
         <f t="shared" ref="J67:J130" si="1">_xlfn.CONCAT(A67:I67)</f>
         <v>.replaceAll("Ķ","k")</v>
       </c>
@@ -41739,7 +41770,7 @@
       <c r="I68" t="s">
         <v>735</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ľ","l")</v>
       </c>
@@ -41772,7 +41803,7 @@
       <c r="I69" t="s">
         <v>735</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ł̣","l")</v>
       </c>
@@ -41805,7 +41836,7 @@
       <c r="I70" t="s">
         <v>735</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ł","l")</v>
       </c>
@@ -41838,7 +41869,7 @@
       <c r="I71" t="s">
         <v>735</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ḷ","l")</v>
       </c>
@@ -41871,7 +41902,7 @@
       <c r="I72" t="s">
         <v>735</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("M̃","m")</v>
       </c>
@@ -41904,7 +41935,7 @@
       <c r="I73" t="s">
         <v>735</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ɱ","m")</v>
       </c>
@@ -41937,7 +41968,7 @@
       <c r="I74" t="s">
         <v>735</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ḿ","m")</v>
       </c>
@@ -41970,7 +42001,7 @@
       <c r="I75" t="s">
         <v>735</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṅ","n")</v>
       </c>
@@ -42003,7 +42034,7 @@
       <c r="I76" t="s">
         <v>735</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṉ","n")</v>
       </c>
@@ -42036,7 +42067,7 @@
       <c r="I77" t="s">
         <v>735</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ň","n")</v>
       </c>
@@ -42069,7 +42100,7 @@
       <c r="I78" t="s">
         <v>735</v>
       </c>
-      <c r="J78" t="str">
+      <c r="J78" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ñ","n")</v>
       </c>
@@ -42102,7 +42133,7 @@
       <c r="I79" t="s">
         <v>735</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ń","n")</v>
       </c>
@@ -42135,7 +42166,7 @@
       <c r="I80" t="s">
         <v>735</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ǹ","n")</v>
       </c>
@@ -42168,7 +42199,7 @@
       <c r="I81" t="s">
         <v>735</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ɲ","n")</v>
       </c>
@@ -42201,7 +42232,7 @@
       <c r="I82" t="s">
         <v>735</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ơ","o")</v>
       </c>
@@ -42234,7 +42265,7 @@
       <c r="I83" t="s">
         <v>735</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("O͘","o")</v>
       </c>
@@ -42267,7 +42298,7 @@
       <c r="I84" t="s">
         <v>735</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ꝍ","o")</v>
       </c>
@@ -42300,7 +42331,7 @@
       <c r="I85" t="s">
         <v>735</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ö","o")</v>
       </c>
@@ -42333,7 +42364,7 @@
       <c r="I86" t="s">
         <v>735</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ó","o")</v>
       </c>
@@ -42366,7 +42397,7 @@
       <c r="I87" t="s">
         <v>735</v>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ò","o")</v>
       </c>
@@ -42399,7 +42430,7 @@
       <c r="I88" t="s">
         <v>735</v>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Õ","o")</v>
       </c>
@@ -42432,7 +42463,7 @@
       <c r="I89" t="s">
         <v>735</v>
       </c>
-      <c r="J89" t="str">
+      <c r="J89" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ǫ","o")</v>
       </c>
@@ -42465,7 +42496,7 @@
       <c r="I90" t="s">
         <v>735</v>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Oʻ","o")</v>
       </c>
@@ -42498,7 +42529,7 @@
       <c r="I91" t="s">
         <v>735</v>
       </c>
-      <c r="J91" t="str">
+      <c r="J91" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("P̃","p")</v>
       </c>
@@ -42531,7 +42562,7 @@
       <c r="I92" t="s">
         <v>735</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ƥ","p")</v>
       </c>
@@ -42564,7 +42595,7 @@
       <c r="I93" t="s">
         <v>735</v>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṕ","p")</v>
       </c>
@@ -42597,7 +42628,7 @@
       <c r="I94" t="s">
         <v>735</v>
       </c>
-      <c r="J94" t="str">
+      <c r="J94" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("R̃","r")</v>
       </c>
@@ -42630,7 +42661,7 @@
       <c r="I95" t="s">
         <v>735</v>
       </c>
-      <c r="J95" t="str">
+      <c r="J95" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ř","r")</v>
       </c>
@@ -42663,7 +42694,7 @@
       <c r="I96" t="s">
         <v>735</v>
       </c>
-      <c r="J96" t="str">
+      <c r="J96" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṛ","r")</v>
       </c>
@@ -42696,7 +42727,7 @@
       <c r="I97" t="s">
         <v>735</v>
       </c>
-      <c r="J97" t="str">
+      <c r="J97" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ȓ","r")</v>
       </c>
@@ -42729,7 +42760,7 @@
       <c r="I98" t="s">
         <v>735</v>
       </c>
-      <c r="J98" t="str">
+      <c r="J98" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ŕ","r")</v>
       </c>
@@ -42762,7 +42793,7 @@
       <c r="I99" t="s">
         <v>735</v>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ş","s")</v>
       </c>
@@ -42795,7 +42826,7 @@
       <c r="I100" t="s">
         <v>735</v>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("S̩","s")</v>
       </c>
@@ -42828,7 +42859,7 @@
       <c r="I101" t="s">
         <v>735</v>
       </c>
-      <c r="J101" t="str">
+      <c r="J101" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Š","s")</v>
       </c>
@@ -42861,7 +42892,7 @@
       <c r="I102" t="s">
         <v>735</v>
       </c>
-      <c r="J102" t="str">
+      <c r="J102" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("S̈","s")</v>
       </c>
@@ -42894,7 +42925,7 @@
       <c r="I103" t="s">
         <v>735</v>
       </c>
-      <c r="J103" t="str">
+      <c r="J103" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṡ","s")</v>
       </c>
@@ -42927,7 +42958,7 @@
       <c r="I104" t="s">
         <v>735</v>
       </c>
-      <c r="J104" t="str">
+      <c r="J104" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṣ","s")</v>
       </c>
@@ -42960,7 +42991,7 @@
       <c r="I105" t="s">
         <v>735</v>
       </c>
-      <c r="J105" t="str">
+      <c r="J105" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ś","s")</v>
       </c>
@@ -42993,7 +43024,7 @@
       <c r="I106" t="s">
         <v>735</v>
       </c>
-      <c r="J106" t="str">
+      <c r="J106" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ŝ","s")</v>
       </c>
@@ -43026,7 +43057,7 @@
       <c r="I107" t="s">
         <v>735</v>
       </c>
-      <c r="J107" t="str">
+      <c r="J107" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ș","s")</v>
       </c>
@@ -43059,7 +43090,7 @@
       <c r="I108" t="s">
         <v>735</v>
       </c>
-      <c r="J108" t="str">
+      <c r="J108" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("S̀","s")</v>
       </c>
@@ -43092,7 +43123,7 @@
       <c r="I109" t="s">
         <v>735</v>
       </c>
-      <c r="J109" t="str">
+      <c r="J109" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ț","t")</v>
       </c>
@@ -43125,7 +43156,7 @@
       <c r="I110" t="s">
         <v>735</v>
       </c>
-      <c r="J110" t="str">
+      <c r="J110" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ť","t")</v>
       </c>
@@ -43158,7 +43189,7 @@
       <c r="I111" t="s">
         <v>735</v>
       </c>
-      <c r="J111" t="str">
+      <c r="J111" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ṭ","t")</v>
       </c>
@@ -43191,7 +43222,7 @@
       <c r="I112" t="s">
         <v>735</v>
       </c>
-      <c r="J112" t="str">
+      <c r="J112" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ƭ","t")</v>
       </c>
@@ -43224,7 +43255,7 @@
       <c r="I113" t="s">
         <v>735</v>
       </c>
-      <c r="J113" t="str">
+      <c r="J113" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ʈ","t")</v>
       </c>
@@ -43257,7 +43288,7 @@
       <c r="I114" t="s">
         <v>735</v>
       </c>
-      <c r="J114" t="str">
+      <c r="J114" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ţ","t")</v>
       </c>
@@ -43290,7 +43321,7 @@
       <c r="I115" t="s">
         <v>735</v>
       </c>
-      <c r="J115" t="str">
+      <c r="J115" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("ᵵ","t")</v>
       </c>
@@ -43323,7 +43354,7 @@
       <c r="I116" t="s">
         <v>735</v>
       </c>
-      <c r="J116" t="str">
+      <c r="J116" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ꞟ","u")</v>
       </c>
@@ -43356,7 +43387,7 @@
       <c r="I117" t="s">
         <v>735</v>
       </c>
-      <c r="J117" t="str">
+      <c r="J117" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ŭ","u")</v>
       </c>
@@ -43389,7 +43420,7 @@
       <c r="I118" t="s">
         <v>735</v>
       </c>
-      <c r="J118" t="str">
+      <c r="J118" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ư","u")</v>
       </c>
@@ -43422,7 +43453,7 @@
       <c r="I119" t="s">
         <v>735</v>
       </c>
-      <c r="J119" t="str">
+      <c r="J119" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ú","u")</v>
       </c>
@@ -43455,7 +43486,7 @@
       <c r="I120" t="s">
         <v>735</v>
       </c>
-      <c r="J120" t="str">
+      <c r="J120" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Û","u")</v>
       </c>
@@ -43488,7 +43519,7 @@
       <c r="I121" t="s">
         <v>735</v>
       </c>
-      <c r="J121" t="str">
+      <c r="J121" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ü","u")</v>
       </c>
@@ -43521,7 +43552,7 @@
       <c r="I122" t="s">
         <v>735</v>
       </c>
-      <c r="J122" t="str">
+      <c r="J122" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ų","u")</v>
       </c>
@@ -43554,7 +43585,7 @@
       <c r="I123" t="s">
         <v>735</v>
       </c>
-      <c r="J123" t="str">
+      <c r="J123" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ẃ","w")</v>
       </c>
@@ -43587,7 +43618,7 @@
       <c r="I124" t="s">
         <v>735</v>
       </c>
-      <c r="J124" t="str">
+      <c r="J124" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ẋ","x")</v>
       </c>
@@ -43620,7 +43651,7 @@
       <c r="I125" t="s">
         <v>735</v>
       </c>
-      <c r="J125" t="str">
+      <c r="J125" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("X̣","x")</v>
       </c>
@@ -43653,7 +43684,7 @@
       <c r="I126" t="s">
         <v>735</v>
       </c>
-      <c r="J126" t="str">
+      <c r="J126" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ý","y")</v>
       </c>
@@ -43686,7 +43717,7 @@
       <c r="I127" t="s">
         <v>735</v>
       </c>
-      <c r="J127" t="str">
+      <c r="J127" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ÿ","y")</v>
       </c>
@@ -43719,7 +43750,7 @@
       <c r="I128" t="s">
         <v>735</v>
       </c>
-      <c r="J128" t="str">
+      <c r="J128" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ƴ","y")</v>
       </c>
@@ -43752,7 +43783,7 @@
       <c r="I129" t="s">
         <v>735</v>
       </c>
-      <c r="J129" t="str">
+      <c r="J129" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ȳ","y")</v>
       </c>
@@ -43785,7 +43816,7 @@
       <c r="I130" t="s">
         <v>735</v>
       </c>
-      <c r="J130" t="str">
+      <c r="J130" s="67" t="str">
         <f t="shared" si="1"/>
         <v>.replaceAll("Ż","z")</v>
       </c>
@@ -43818,7 +43849,7 @@
       <c r="I131" t="s">
         <v>735</v>
       </c>
-      <c r="J131" t="str">
+      <c r="J131" s="67" t="str">
         <f t="shared" ref="J131:J137" si="2">_xlfn.CONCAT(A131:I131)</f>
         <v>.replaceAll("Ȥ","z")</v>
       </c>
@@ -43851,7 +43882,7 @@
       <c r="I132" t="s">
         <v>735</v>
       </c>
-      <c r="J132" t="str">
+      <c r="J132" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Ź","z")</v>
       </c>
@@ -43884,7 +43915,7 @@
       <c r="I133" t="s">
         <v>735</v>
       </c>
-      <c r="J133" t="str">
+      <c r="J133" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Ž","z")</v>
       </c>
@@ -43917,7 +43948,7 @@
       <c r="I134" t="s">
         <v>735</v>
       </c>
-      <c r="J134" t="str">
+      <c r="J134" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Ẓ","z")</v>
       </c>
@@ -43950,7 +43981,7 @@
       <c r="I135" t="s">
         <v>735</v>
       </c>
-      <c r="J135" t="str">
+      <c r="J135" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Ẑ","z")</v>
       </c>
@@ -43983,7 +44014,7 @@
       <c r="I136" t="s">
         <v>735</v>
       </c>
-      <c r="J136" t="str">
+      <c r="J136" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Z̀","z")</v>
       </c>
@@ -44016,7 +44047,7 @@
       <c r="I137" t="s">
         <v>735</v>
       </c>
-      <c r="J137" t="str">
+      <c r="J137" s="67" t="str">
         <f t="shared" si="2"/>
         <v>.replaceAll("Ǯ","z")</v>
       </c>
@@ -44188,6 +44219,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
